--- a/tables/order_item.xlsx
+++ b/tables/order_item.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D364"/>
+  <dimension ref="A1:D320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,10 +460,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -474,7 +474,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -488,13 +488,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -502,10 +502,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
@@ -516,13 +516,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>5</v>
@@ -558,13 +558,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -586,10 +586,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>7</v>
@@ -600,13 +600,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +642,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +656,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -670,10 +670,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>10</v>
@@ -684,7 +684,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -698,13 +698,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -712,10 +712,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>11</v>
@@ -726,13 +726,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -740,13 +740,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -754,13 +754,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -768,7 +768,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -782,7 +782,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -796,13 +796,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -810,13 +810,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -824,10 +824,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>14</v>
@@ -838,13 +838,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -852,13 +852,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -866,7 +866,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -880,13 +880,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
@@ -894,13 +894,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
@@ -908,13 +908,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -922,13 +922,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
@@ -936,13 +936,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
@@ -950,13 +950,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
@@ -964,13 +964,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39">
@@ -978,7 +978,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -992,10 +992,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
         <v>23</v>
@@ -1006,13 +1006,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
@@ -1020,10 +1020,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
         <v>24</v>
@@ -1034,7 +1034,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -1048,10 +1048,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>25</v>
@@ -1062,7 +1062,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -1076,13 +1076,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
@@ -1090,13 +1090,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
@@ -1104,7 +1104,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -1118,10 +1118,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
         <v>27</v>
@@ -1132,10 +1132,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
         <v>27</v>
@@ -1146,7 +1146,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C51" t="n">
         <v>2</v>
@@ -1160,10 +1160,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>28</v>
@@ -1174,7 +1174,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -1188,7 +1188,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -1202,10 +1202,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>29</v>
@@ -1216,7 +1216,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -1230,13 +1230,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C57" t="n">
         <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
@@ -1244,13 +1244,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
@@ -1258,13 +1258,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
@@ -1272,13 +1272,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
@@ -1286,13 +1286,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62">
@@ -1300,13 +1300,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63">
@@ -1314,13 +1314,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64">
@@ -1328,13 +1328,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65">
@@ -1342,13 +1342,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66">
@@ -1356,13 +1356,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67">
@@ -1370,13 +1370,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68">
@@ -1384,13 +1384,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69">
@@ -1398,13 +1398,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70">
@@ -1412,13 +1412,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71">
@@ -1426,13 +1426,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72">
@@ -1440,13 +1440,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73">
@@ -1454,13 +1454,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C73" t="n">
         <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74">
@@ -1471,10 +1471,10 @@
         <v>36</v>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75">
@@ -1482,13 +1482,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76">
@@ -1496,13 +1496,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77">
@@ -1510,13 +1510,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78">
@@ -1524,13 +1524,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79">
@@ -1538,13 +1538,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80">
@@ -1552,13 +1552,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81">
@@ -1569,10 +1569,10 @@
         <v>4</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82">
@@ -1580,13 +1580,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83">
@@ -1594,13 +1594,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84">
@@ -1608,13 +1608,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C84" t="n">
         <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85">
@@ -1622,13 +1622,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C85" t="n">
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86">
@@ -1636,13 +1636,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87">
@@ -1650,13 +1650,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88">
@@ -1664,13 +1664,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C88" t="n">
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89">
@@ -1678,13 +1678,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90">
@@ -1692,13 +1692,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91">
@@ -1706,13 +1706,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92">
@@ -1720,13 +1720,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93">
@@ -1734,13 +1734,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
         <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94">
@@ -1748,13 +1748,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95">
@@ -1762,13 +1762,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96">
@@ -1776,13 +1776,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97">
@@ -1790,13 +1790,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98">
@@ -1804,13 +1804,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99">
@@ -1818,13 +1818,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100">
@@ -1832,13 +1832,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C100" t="n">
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101">
@@ -1846,13 +1846,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102">
@@ -1860,13 +1860,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D102" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103">
@@ -1874,13 +1874,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104">
@@ -1888,13 +1888,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C104" t="n">
         <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105">
@@ -1902,13 +1902,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D105" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106">
@@ -1916,13 +1916,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107">
@@ -1930,13 +1930,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C107" t="n">
         <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="108">
@@ -1950,7 +1950,7 @@
         <v>2</v>
       </c>
       <c r="D108" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="109">
@@ -1958,13 +1958,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110">
@@ -1972,13 +1972,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C110" t="n">
         <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="111">
@@ -1986,13 +1986,13 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="112">
@@ -2000,13 +2000,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C112" t="n">
         <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113">
@@ -2014,13 +2014,13 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114">
@@ -2028,13 +2028,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C114" t="n">
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115">
@@ -2042,13 +2042,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C115" t="n">
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="116">
@@ -2056,13 +2056,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D116" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="117">
@@ -2070,13 +2070,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C117" t="n">
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="118">
@@ -2084,13 +2084,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="119">
@@ -2098,13 +2098,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="120">
@@ -2118,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="121">
@@ -2126,13 +2126,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C121" t="n">
         <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="122">
@@ -2140,13 +2140,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123">
@@ -2154,13 +2154,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C123" t="n">
         <v>2</v>
       </c>
       <c r="D123" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="124">
@@ -2168,13 +2168,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="125">
@@ -2182,13 +2182,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="126">
@@ -2196,13 +2196,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C126" t="n">
         <v>2</v>
       </c>
       <c r="D126" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="127">
@@ -2210,13 +2210,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="128">
@@ -2224,13 +2224,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="129">
@@ -2238,13 +2238,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="130">
@@ -2252,13 +2252,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C130" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="131">
@@ -2266,13 +2266,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="132">
@@ -2280,13 +2280,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C132" t="n">
         <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="133">
@@ -2294,13 +2294,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C133" t="n">
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="134">
@@ -2308,13 +2308,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="135">
@@ -2322,13 +2322,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C135" t="n">
         <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="136">
@@ -2336,13 +2336,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D136" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="137">
@@ -2350,13 +2350,13 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D137" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="138">
@@ -2364,13 +2364,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="139">
@@ -2378,13 +2378,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D139" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="140">
@@ -2392,13 +2392,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="141">
@@ -2406,13 +2406,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D141" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="142">
@@ -2420,13 +2420,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C142" t="n">
         <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="143">
@@ -2434,13 +2434,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="144">
@@ -2448,13 +2448,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C144" t="n">
         <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="145">
@@ -2462,13 +2462,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D145" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="146">
@@ -2476,13 +2476,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="147">
@@ -2490,13 +2490,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D147" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="148">
@@ -2504,13 +2504,13 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="149">
@@ -2518,13 +2518,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="150">
@@ -2532,13 +2532,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="151">
@@ -2546,13 +2546,13 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="152">
@@ -2560,13 +2560,13 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D152" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="153">
@@ -2574,13 +2574,13 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C153" t="n">
         <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="154">
@@ -2588,13 +2588,13 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="155">
@@ -2602,13 +2602,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C155" t="n">
         <v>1</v>
       </c>
       <c r="D155" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="156">
@@ -2616,13 +2616,13 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C156" t="n">
         <v>1</v>
       </c>
       <c r="D156" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="157">
@@ -2630,13 +2630,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="158">
@@ -2644,13 +2644,13 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C158" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D158" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="159">
@@ -2658,13 +2658,13 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D159" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="160">
@@ -2672,13 +2672,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160" t="n">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="161">
@@ -2686,13 +2686,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C161" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="162">
@@ -2700,13 +2700,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="163">
@@ -2714,13 +2714,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C163" t="n">
         <v>1</v>
       </c>
       <c r="D163" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="164">
@@ -2728,13 +2728,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D164" t="n">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="165">
@@ -2742,13 +2742,13 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C165" t="n">
         <v>1</v>
       </c>
       <c r="D165" t="n">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="166">
@@ -2756,13 +2756,13 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="167">
@@ -2770,13 +2770,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C167" t="n">
         <v>1</v>
       </c>
       <c r="D167" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="168">
@@ -2784,13 +2784,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C168" t="n">
         <v>2</v>
       </c>
       <c r="D168" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="169">
@@ -2798,13 +2798,13 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="170">
@@ -2812,13 +2812,13 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C170" t="n">
         <v>2</v>
       </c>
       <c r="D170" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="171">
@@ -2826,13 +2826,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C171" t="n">
         <v>1</v>
       </c>
       <c r="D171" t="n">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="172">
@@ -2840,13 +2840,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C172" t="n">
         <v>2</v>
       </c>
       <c r="D172" t="n">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="173">
@@ -2854,13 +2854,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C173" t="n">
         <v>2</v>
       </c>
       <c r="D173" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="174">
@@ -2868,13 +2868,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D174" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="175">
@@ -2882,13 +2882,13 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
       </c>
       <c r="D175" t="n">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="176">
@@ -2896,13 +2896,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D176" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="177">
@@ -2910,13 +2910,13 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C177" t="n">
         <v>2</v>
       </c>
       <c r="D177" t="n">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="178">
@@ -2924,13 +2924,13 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C178" t="n">
         <v>1</v>
       </c>
       <c r="D178" t="n">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="179">
@@ -2938,13 +2938,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="180">
@@ -2952,13 +2952,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C180" t="n">
         <v>1</v>
       </c>
       <c r="D180" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="181">
@@ -2966,13 +2966,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C181" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D181" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="182">
@@ -2980,13 +2980,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C182" t="n">
         <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="183">
@@ -2994,13 +2994,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C183" t="n">
         <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="184">
@@ -3008,13 +3008,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D184" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="185">
@@ -3022,13 +3022,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C185" t="n">
         <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="186">
@@ -3036,13 +3036,13 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186" t="n">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="187">
@@ -3050,13 +3050,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C187" t="n">
         <v>1</v>
       </c>
       <c r="D187" t="n">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="188">
@@ -3064,13 +3064,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188" t="n">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="189">
@@ -3078,13 +3078,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C189" t="n">
         <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="190">
@@ -3092,13 +3092,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C190" t="n">
         <v>1</v>
       </c>
       <c r="D190" t="n">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="191">
@@ -3106,13 +3106,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D191" t="n">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="192">
@@ -3120,13 +3120,13 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C192" t="n">
         <v>1</v>
       </c>
       <c r="D192" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="193">
@@ -3134,13 +3134,13 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C193" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D193" t="n">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="194">
@@ -3148,13 +3148,13 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C194" t="n">
         <v>1</v>
       </c>
       <c r="D194" t="n">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="195">
@@ -3162,13 +3162,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D195" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="196">
@@ -3176,13 +3176,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D196" t="n">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="197">
@@ -3190,13 +3190,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C197" t="n">
         <v>2</v>
       </c>
       <c r="D197" t="n">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="198">
@@ -3204,13 +3204,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198" t="n">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="199">
@@ -3218,13 +3218,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C199" t="n">
         <v>1</v>
       </c>
       <c r="D199" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="200">
@@ -3232,13 +3232,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200" t="n">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="201">
@@ -3246,13 +3246,13 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D201" t="n">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="202">
@@ -3260,13 +3260,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D202" t="n">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="203">
@@ -3274,13 +3274,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C203" t="n">
         <v>1</v>
       </c>
       <c r="D203" t="n">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="204">
@@ -3288,13 +3288,13 @@
         <v>203</v>
       </c>
       <c r="B204" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D204" t="n">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="205">
@@ -3302,13 +3302,13 @@
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C205" t="n">
         <v>3</v>
       </c>
       <c r="D205" t="n">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="206">
@@ -3316,13 +3316,13 @@
         <v>205</v>
       </c>
       <c r="B206" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C206" t="n">
         <v>1</v>
       </c>
       <c r="D206" t="n">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="207">
@@ -3330,13 +3330,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D207" t="n">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="208">
@@ -3344,13 +3344,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C208" t="n">
         <v>1</v>
       </c>
       <c r="D208" t="n">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="209">
@@ -3358,13 +3358,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D209" t="n">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="210">
@@ -3372,13 +3372,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210" t="n">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="211">
@@ -3386,13 +3386,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C211" t="n">
         <v>2</v>
       </c>
       <c r="D211" t="n">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="212">
@@ -3400,13 +3400,13 @@
         <v>211</v>
       </c>
       <c r="B212" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C212" t="n">
         <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="213">
@@ -3414,13 +3414,13 @@
         <v>212</v>
       </c>
       <c r="B213" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D213" t="n">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="214">
@@ -3428,13 +3428,13 @@
         <v>213</v>
       </c>
       <c r="B214" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214" t="n">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="215">
@@ -3442,13 +3442,13 @@
         <v>214</v>
       </c>
       <c r="B215" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C215" t="n">
         <v>1</v>
       </c>
       <c r="D215" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="216">
@@ -3456,13 +3456,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C216" t="n">
         <v>1</v>
       </c>
       <c r="D216" t="n">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="217">
@@ -3470,13 +3470,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C217" t="n">
         <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="218">
@@ -3484,13 +3484,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C218" t="n">
         <v>1</v>
       </c>
       <c r="D218" t="n">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="219">
@@ -3498,13 +3498,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C219" t="n">
         <v>1</v>
       </c>
       <c r="D219" t="n">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="220">
@@ -3512,13 +3512,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D220" t="n">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="221">
@@ -3526,13 +3526,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221" t="n">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="222">
@@ -3540,13 +3540,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="n">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D222" t="n">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="223">
@@ -3554,13 +3554,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D223" t="n">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="224">
@@ -3568,13 +3568,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C224" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D224" t="n">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="225">
@@ -3582,13 +3582,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D225" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="226">
@@ -3596,13 +3596,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D226" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="227">
@@ -3610,13 +3610,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C227" t="n">
         <v>1</v>
       </c>
       <c r="D227" t="n">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="228">
@@ -3624,13 +3624,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C228" t="n">
         <v>1</v>
       </c>
       <c r="D228" t="n">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="229">
@@ -3638,13 +3638,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C229" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D229" t="n">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="230">
@@ -3652,13 +3652,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C230" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D230" t="n">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="231">
@@ -3666,13 +3666,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
       </c>
       <c r="D231" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="232">
@@ -3680,13 +3680,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C232" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D232" t="n">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="233">
@@ -3694,13 +3694,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C233" t="n">
         <v>1</v>
       </c>
       <c r="D233" t="n">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="234">
@@ -3708,13 +3708,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C234" t="n">
         <v>2</v>
       </c>
       <c r="D234" t="n">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="235">
@@ -3722,13 +3722,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C235" t="n">
         <v>1</v>
       </c>
       <c r="D235" t="n">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="236">
@@ -3736,13 +3736,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C236" t="n">
         <v>1</v>
       </c>
       <c r="D236" t="n">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="237">
@@ -3750,13 +3750,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C237" t="n">
         <v>1</v>
       </c>
       <c r="D237" t="n">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="238">
@@ -3764,13 +3764,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="n">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="C238" t="n">
         <v>2</v>
       </c>
       <c r="D238" t="n">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="239">
@@ -3778,13 +3778,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C239" t="n">
         <v>1</v>
       </c>
       <c r="D239" t="n">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="240">
@@ -3792,13 +3792,13 @@
         <v>239</v>
       </c>
       <c r="B240" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D240" t="n">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="241">
@@ -3806,13 +3806,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D241" t="n">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="242">
@@ -3820,13 +3820,13 @@
         <v>241</v>
       </c>
       <c r="B242" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C242" t="n">
         <v>1</v>
       </c>
       <c r="D242" t="n">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="243">
@@ -3837,10 +3837,10 @@
         <v>14</v>
       </c>
       <c r="C243" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D243" t="n">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="244">
@@ -3848,13 +3848,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D244" t="n">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="245">
@@ -3862,13 +3862,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C245" t="n">
         <v>1</v>
       </c>
       <c r="D245" t="n">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="246">
@@ -3876,13 +3876,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D246" t="n">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="247">
@@ -3890,13 +3890,13 @@
         <v>246</v>
       </c>
       <c r="B247" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
       </c>
       <c r="D247" t="n">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="248">
@@ -3904,13 +3904,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="n">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D248" t="n">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="249">
@@ -3918,13 +3918,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C249" t="n">
         <v>1</v>
       </c>
       <c r="D249" t="n">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="250">
@@ -3932,13 +3932,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D250" t="n">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="251">
@@ -3946,13 +3946,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D251" t="n">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="252">
@@ -3960,13 +3960,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="C252" t="n">
         <v>1</v>
       </c>
       <c r="D252" t="n">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="253">
@@ -3974,13 +3974,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D253" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="254">
@@ -3988,13 +3988,13 @@
         <v>253</v>
       </c>
       <c r="B254" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D254" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="255">
@@ -4002,13 +4002,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C255" t="n">
         <v>2</v>
       </c>
       <c r="D255" t="n">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="256">
@@ -4016,13 +4016,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="n">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C256" t="n">
         <v>1</v>
       </c>
       <c r="D256" t="n">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="257">
@@ -4030,13 +4030,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D257" t="n">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="258">
@@ -4044,13 +4044,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D258" t="n">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="259">
@@ -4058,13 +4058,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="n">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C259" t="n">
         <v>1</v>
       </c>
       <c r="D259" t="n">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="260">
@@ -4072,13 +4072,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D260" t="n">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="261">
@@ -4086,13 +4086,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="n">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D261" t="n">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="262">
@@ -4100,13 +4100,13 @@
         <v>261</v>
       </c>
       <c r="B262" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D262" t="n">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="263">
@@ -4114,13 +4114,13 @@
         <v>262</v>
       </c>
       <c r="B263" t="n">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C263" t="n">
         <v>1</v>
       </c>
       <c r="D263" t="n">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="264">
@@ -4128,13 +4128,13 @@
         <v>263</v>
       </c>
       <c r="B264" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C264" t="n">
         <v>1</v>
       </c>
       <c r="D264" t="n">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="265">
@@ -4142,13 +4142,13 @@
         <v>264</v>
       </c>
       <c r="B265" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D265" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="266">
@@ -4156,13 +4156,13 @@
         <v>265</v>
       </c>
       <c r="B266" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D266" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="267">
@@ -4170,13 +4170,13 @@
         <v>266</v>
       </c>
       <c r="B267" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D267" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="268">
@@ -4184,13 +4184,13 @@
         <v>267</v>
       </c>
       <c r="B268" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C268" t="n">
         <v>1</v>
       </c>
       <c r="D268" t="n">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="269">
@@ -4201,10 +4201,10 @@
         <v>24</v>
       </c>
       <c r="C269" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D269" t="n">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="270">
@@ -4212,13 +4212,13 @@
         <v>269</v>
       </c>
       <c r="B270" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C270" t="n">
         <v>1</v>
       </c>
       <c r="D270" t="n">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="271">
@@ -4226,13 +4226,13 @@
         <v>270</v>
       </c>
       <c r="B271" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C271" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D271" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="272">
@@ -4240,13 +4240,13 @@
         <v>271</v>
       </c>
       <c r="B272" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C272" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D272" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="273">
@@ -4254,13 +4254,13 @@
         <v>272</v>
       </c>
       <c r="B273" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D273" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="274">
@@ -4268,13 +4268,13 @@
         <v>273</v>
       </c>
       <c r="B274" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D274" t="n">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="275">
@@ -4282,13 +4282,13 @@
         <v>274</v>
       </c>
       <c r="B275" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D275" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="276">
@@ -4296,13 +4296,13 @@
         <v>275</v>
       </c>
       <c r="B276" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C276" t="n">
         <v>1</v>
       </c>
       <c r="D276" t="n">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="277">
@@ -4310,13 +4310,13 @@
         <v>276</v>
       </c>
       <c r="B277" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C277" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D277" t="n">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="278">
@@ -4324,13 +4324,13 @@
         <v>277</v>
       </c>
       <c r="B278" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C278" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D278" t="n">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="279">
@@ -4338,13 +4338,13 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D279" t="n">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="280">
@@ -4352,13 +4352,13 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C280" t="n">
         <v>2</v>
       </c>
       <c r="D280" t="n">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="281">
@@ -4366,13 +4366,13 @@
         <v>280</v>
       </c>
       <c r="B281" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C281" t="n">
         <v>1</v>
       </c>
       <c r="D281" t="n">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="282">
@@ -4380,13 +4380,13 @@
         <v>281</v>
       </c>
       <c r="B282" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D282" t="n">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="283">
@@ -4394,13 +4394,13 @@
         <v>282</v>
       </c>
       <c r="B283" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D283" t="n">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="284">
@@ -4408,13 +4408,13 @@
         <v>283</v>
       </c>
       <c r="B284" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C284" t="n">
         <v>1</v>
       </c>
       <c r="D284" t="n">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="285">
@@ -4422,13 +4422,13 @@
         <v>284</v>
       </c>
       <c r="B285" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C285" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D285" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="286">
@@ -4436,13 +4436,13 @@
         <v>285</v>
       </c>
       <c r="B286" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C286" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D286" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="287">
@@ -4450,13 +4450,13 @@
         <v>286</v>
       </c>
       <c r="B287" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C287" t="n">
         <v>1</v>
       </c>
       <c r="D287" t="n">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="288">
@@ -4464,13 +4464,13 @@
         <v>287</v>
       </c>
       <c r="B288" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C288" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D288" t="n">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="289">
@@ -4478,13 +4478,13 @@
         <v>288</v>
       </c>
       <c r="B289" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C289" t="n">
         <v>2</v>
       </c>
       <c r="D289" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="290">
@@ -4492,13 +4492,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C290" t="n">
         <v>2</v>
       </c>
       <c r="D290" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="291">
@@ -4506,13 +4506,13 @@
         <v>290</v>
       </c>
       <c r="B291" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C291" t="n">
         <v>1</v>
       </c>
       <c r="D291" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="292">
@@ -4520,13 +4520,13 @@
         <v>291</v>
       </c>
       <c r="B292" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C292" t="n">
         <v>1</v>
       </c>
       <c r="D292" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="293">
@@ -4534,13 +4534,13 @@
         <v>292</v>
       </c>
       <c r="B293" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C293" t="n">
         <v>2</v>
       </c>
       <c r="D293" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="294">
@@ -4548,13 +4548,13 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C294" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D294" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="295">
@@ -4562,13 +4562,13 @@
         <v>294</v>
       </c>
       <c r="B295" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D295" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="296">
@@ -4576,13 +4576,13 @@
         <v>295</v>
       </c>
       <c r="B296" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D296" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="297">
@@ -4590,10 +4590,10 @@
         <v>296</v>
       </c>
       <c r="B297" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D297" t="n">
         <v>160</v>
@@ -4604,10 +4604,10 @@
         <v>297</v>
       </c>
       <c r="B298" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D298" t="n">
         <v>161</v>
@@ -4618,10 +4618,10 @@
         <v>298</v>
       </c>
       <c r="B299" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D299" t="n">
         <v>161</v>
@@ -4632,10 +4632,10 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D300" t="n">
         <v>162</v>
@@ -4646,10 +4646,10 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C301" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D301" t="n">
         <v>163</v>
@@ -4660,13 +4660,13 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C302" t="n">
         <v>1</v>
       </c>
       <c r="D302" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="303">
@@ -4674,10 +4674,10 @@
         <v>302</v>
       </c>
       <c r="B303" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D303" t="n">
         <v>164</v>
@@ -4688,10 +4688,10 @@
         <v>303</v>
       </c>
       <c r="B304" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D304" t="n">
         <v>165</v>
@@ -4702,7 +4702,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C305" t="n">
         <v>2</v>
@@ -4716,13 +4716,13 @@
         <v>305</v>
       </c>
       <c r="B306" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C306" t="n">
         <v>1</v>
       </c>
       <c r="D306" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="307">
@@ -4730,13 +4730,13 @@
         <v>306</v>
       </c>
       <c r="B307" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C307" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D307" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="308">
@@ -4744,13 +4744,13 @@
         <v>307</v>
       </c>
       <c r="B308" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C308" t="n">
         <v>1</v>
       </c>
       <c r="D308" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="309">
@@ -4758,13 +4758,13 @@
         <v>308</v>
       </c>
       <c r="B309" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D309" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="310">
@@ -4772,13 +4772,13 @@
         <v>309</v>
       </c>
       <c r="B310" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C310" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D310" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="311">
@@ -4786,13 +4786,13 @@
         <v>310</v>
       </c>
       <c r="B311" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D311" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="312">
@@ -4800,13 +4800,13 @@
         <v>311</v>
       </c>
       <c r="B312" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C312" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D312" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="313">
@@ -4814,13 +4814,13 @@
         <v>312</v>
       </c>
       <c r="B313" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C313" t="n">
         <v>1</v>
       </c>
       <c r="D313" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="314">
@@ -4828,13 +4828,13 @@
         <v>313</v>
       </c>
       <c r="B314" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C314" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D314" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="315">
@@ -4842,7 +4842,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C315" t="n">
         <v>1</v>
@@ -4856,10 +4856,10 @@
         <v>315</v>
       </c>
       <c r="B316" t="n">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D316" t="n">
         <v>172</v>
@@ -4870,7 +4870,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C317" t="n">
         <v>1</v>
@@ -4884,13 +4884,13 @@
         <v>317</v>
       </c>
       <c r="B318" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C318" t="n">
         <v>1</v>
       </c>
       <c r="D318" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="319">
@@ -4898,13 +4898,13 @@
         <v>318</v>
       </c>
       <c r="B319" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C319" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D319" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="320">
@@ -4912,629 +4912,13 @@
         <v>319</v>
       </c>
       <c r="B320" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C320" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D320" t="n">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="n">
-        <v>320</v>
-      </c>
-      <c r="B321" t="n">
-        <v>18</v>
-      </c>
-      <c r="C321" t="n">
-        <v>1</v>
-      </c>
-      <c r="D321" t="n">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="n">
-        <v>321</v>
-      </c>
-      <c r="B322" t="n">
-        <v>36</v>
-      </c>
-      <c r="C322" t="n">
-        <v>1</v>
-      </c>
-      <c r="D322" t="n">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="n">
-        <v>322</v>
-      </c>
-      <c r="B323" t="n">
-        <v>53</v>
-      </c>
-      <c r="C323" t="n">
-        <v>2</v>
-      </c>
-      <c r="D323" t="n">
         <v>176</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="n">
-        <v>323</v>
-      </c>
-      <c r="B324" t="n">
-        <v>19</v>
-      </c>
-      <c r="C324" t="n">
-        <v>1</v>
-      </c>
-      <c r="D324" t="n">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="n">
-        <v>324</v>
-      </c>
-      <c r="B325" t="n">
-        <v>4</v>
-      </c>
-      <c r="C325" t="n">
-        <v>3</v>
-      </c>
-      <c r="D325" t="n">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="n">
-        <v>325</v>
-      </c>
-      <c r="B326" t="n">
-        <v>42</v>
-      </c>
-      <c r="C326" t="n">
-        <v>1</v>
-      </c>
-      <c r="D326" t="n">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="n">
-        <v>326</v>
-      </c>
-      <c r="B327" t="n">
-        <v>5</v>
-      </c>
-      <c r="C327" t="n">
-        <v>1</v>
-      </c>
-      <c r="D327" t="n">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="n">
-        <v>327</v>
-      </c>
-      <c r="B328" t="n">
-        <v>44</v>
-      </c>
-      <c r="C328" t="n">
-        <v>1</v>
-      </c>
-      <c r="D328" t="n">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="n">
-        <v>328</v>
-      </c>
-      <c r="B329" t="n">
-        <v>17</v>
-      </c>
-      <c r="C329" t="n">
-        <v>1</v>
-      </c>
-      <c r="D329" t="n">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="n">
-        <v>329</v>
-      </c>
-      <c r="B330" t="n">
-        <v>3</v>
-      </c>
-      <c r="C330" t="n">
-        <v>1</v>
-      </c>
-      <c r="D330" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="n">
-        <v>330</v>
-      </c>
-      <c r="B331" t="n">
-        <v>12</v>
-      </c>
-      <c r="C331" t="n">
-        <v>2</v>
-      </c>
-      <c r="D331" t="n">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="n">
-        <v>331</v>
-      </c>
-      <c r="B332" t="n">
-        <v>7</v>
-      </c>
-      <c r="C332" t="n">
-        <v>3</v>
-      </c>
-      <c r="D332" t="n">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="n">
-        <v>332</v>
-      </c>
-      <c r="B333" t="n">
-        <v>11</v>
-      </c>
-      <c r="C333" t="n">
-        <v>1</v>
-      </c>
-      <c r="D333" t="n">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="n">
-        <v>333</v>
-      </c>
-      <c r="B334" t="n">
-        <v>22</v>
-      </c>
-      <c r="C334" t="n">
-        <v>2</v>
-      </c>
-      <c r="D334" t="n">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="n">
-        <v>334</v>
-      </c>
-      <c r="B335" t="n">
-        <v>35</v>
-      </c>
-      <c r="C335" t="n">
-        <v>1</v>
-      </c>
-      <c r="D335" t="n">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="n">
-        <v>335</v>
-      </c>
-      <c r="B336" t="n">
-        <v>23</v>
-      </c>
-      <c r="C336" t="n">
-        <v>1</v>
-      </c>
-      <c r="D336" t="n">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="n">
-        <v>336</v>
-      </c>
-      <c r="B337" t="n">
-        <v>5</v>
-      </c>
-      <c r="C337" t="n">
-        <v>1</v>
-      </c>
-      <c r="D337" t="n">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="n">
-        <v>337</v>
-      </c>
-      <c r="B338" t="n">
-        <v>7</v>
-      </c>
-      <c r="C338" t="n">
-        <v>2</v>
-      </c>
-      <c r="D338" t="n">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="n">
-        <v>338</v>
-      </c>
-      <c r="B339" t="n">
-        <v>15</v>
-      </c>
-      <c r="C339" t="n">
-        <v>1</v>
-      </c>
-      <c r="D339" t="n">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="n">
-        <v>339</v>
-      </c>
-      <c r="B340" t="n">
-        <v>9</v>
-      </c>
-      <c r="C340" t="n">
-        <v>1</v>
-      </c>
-      <c r="D340" t="n">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="n">
-        <v>340</v>
-      </c>
-      <c r="B341" t="n">
-        <v>28</v>
-      </c>
-      <c r="C341" t="n">
-        <v>1</v>
-      </c>
-      <c r="D341" t="n">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="n">
-        <v>341</v>
-      </c>
-      <c r="B342" t="n">
-        <v>2</v>
-      </c>
-      <c r="C342" t="n">
-        <v>1</v>
-      </c>
-      <c r="D342" t="n">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="n">
-        <v>342</v>
-      </c>
-      <c r="B343" t="n">
-        <v>29</v>
-      </c>
-      <c r="C343" t="n">
-        <v>1</v>
-      </c>
-      <c r="D343" t="n">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="n">
-        <v>343</v>
-      </c>
-      <c r="B344" t="n">
-        <v>52</v>
-      </c>
-      <c r="C344" t="n">
-        <v>3</v>
-      </c>
-      <c r="D344" t="n">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="n">
-        <v>344</v>
-      </c>
-      <c r="B345" t="n">
-        <v>45</v>
-      </c>
-      <c r="C345" t="n">
-        <v>2</v>
-      </c>
-      <c r="D345" t="n">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="n">
-        <v>345</v>
-      </c>
-      <c r="B346" t="n">
-        <v>53</v>
-      </c>
-      <c r="C346" t="n">
-        <v>2</v>
-      </c>
-      <c r="D346" t="n">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="n">
-        <v>346</v>
-      </c>
-      <c r="B347" t="n">
-        <v>34</v>
-      </c>
-      <c r="C347" t="n">
-        <v>1</v>
-      </c>
-      <c r="D347" t="n">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="n">
-        <v>347</v>
-      </c>
-      <c r="B348" t="n">
-        <v>45</v>
-      </c>
-      <c r="C348" t="n">
-        <v>2</v>
-      </c>
-      <c r="D348" t="n">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="n">
-        <v>348</v>
-      </c>
-      <c r="B349" t="n">
-        <v>37</v>
-      </c>
-      <c r="C349" t="n">
-        <v>1</v>
-      </c>
-      <c r="D349" t="n">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="n">
-        <v>349</v>
-      </c>
-      <c r="B350" t="n">
-        <v>16</v>
-      </c>
-      <c r="C350" t="n">
-        <v>1</v>
-      </c>
-      <c r="D350" t="n">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="n">
-        <v>350</v>
-      </c>
-      <c r="B351" t="n">
-        <v>34</v>
-      </c>
-      <c r="C351" t="n">
-        <v>1</v>
-      </c>
-      <c r="D351" t="n">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="n">
-        <v>351</v>
-      </c>
-      <c r="B352" t="n">
-        <v>50</v>
-      </c>
-      <c r="C352" t="n">
-        <v>2</v>
-      </c>
-      <c r="D352" t="n">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="n">
-        <v>352</v>
-      </c>
-      <c r="B353" t="n">
-        <v>42</v>
-      </c>
-      <c r="C353" t="n">
-        <v>2</v>
-      </c>
-      <c r="D353" t="n">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="n">
-        <v>353</v>
-      </c>
-      <c r="B354" t="n">
-        <v>36</v>
-      </c>
-      <c r="C354" t="n">
-        <v>2</v>
-      </c>
-      <c r="D354" t="n">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="n">
-        <v>354</v>
-      </c>
-      <c r="B355" t="n">
-        <v>2</v>
-      </c>
-      <c r="C355" t="n">
-        <v>2</v>
-      </c>
-      <c r="D355" t="n">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="n">
-        <v>355</v>
-      </c>
-      <c r="B356" t="n">
-        <v>11</v>
-      </c>
-      <c r="C356" t="n">
-        <v>1</v>
-      </c>
-      <c r="D356" t="n">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="n">
-        <v>356</v>
-      </c>
-      <c r="B357" t="n">
-        <v>45</v>
-      </c>
-      <c r="C357" t="n">
-        <v>2</v>
-      </c>
-      <c r="D357" t="n">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="n">
-        <v>357</v>
-      </c>
-      <c r="B358" t="n">
-        <v>11</v>
-      </c>
-      <c r="C358" t="n">
-        <v>3</v>
-      </c>
-      <c r="D358" t="n">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="n">
-        <v>358</v>
-      </c>
-      <c r="B359" t="n">
-        <v>47</v>
-      </c>
-      <c r="C359" t="n">
-        <v>3</v>
-      </c>
-      <c r="D359" t="n">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="n">
-        <v>359</v>
-      </c>
-      <c r="B360" t="n">
-        <v>7</v>
-      </c>
-      <c r="C360" t="n">
-        <v>2</v>
-      </c>
-      <c r="D360" t="n">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="n">
-        <v>360</v>
-      </c>
-      <c r="B361" t="n">
-        <v>11</v>
-      </c>
-      <c r="C361" t="n">
-        <v>1</v>
-      </c>
-      <c r="D361" t="n">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="n">
-        <v>361</v>
-      </c>
-      <c r="B362" t="n">
-        <v>33</v>
-      </c>
-      <c r="C362" t="n">
-        <v>2</v>
-      </c>
-      <c r="D362" t="n">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="n">
-        <v>362</v>
-      </c>
-      <c r="B363" t="n">
-        <v>30</v>
-      </c>
-      <c r="C363" t="n">
-        <v>1</v>
-      </c>
-      <c r="D363" t="n">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="n">
-        <v>363</v>
-      </c>
-      <c r="B364" t="n">
-        <v>13</v>
-      </c>
-      <c r="C364" t="n">
-        <v>1</v>
-      </c>
-      <c r="D364" t="n">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
